--- a/xlsx/权威_intext.xlsx
+++ b/xlsx/权威_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>权威</t>
   </si>
@@ -131,13 +131,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>權力</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -155,7 +152,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1045,7 @@
         <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1074,10 +1071,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -1103,10 +1100,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1132,10 +1129,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1161,10 +1158,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
